--- a/PAM/8000samples.data_results.xlsx
+++ b/PAM/8000samples.data_results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spancer\Documents\GitHub\DataMining_Project\PAM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26280" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="8000samples.data_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Manhattan</t>
   </si>
@@ -42,9 +37,6 @@
     <t>k = 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>k = 4</t>
   </si>
   <si>
@@ -52,6 +44,27 @@
   </si>
   <si>
     <t>k = 16</t>
+  </si>
+  <si>
+    <t>True Positives</t>
+  </si>
+  <si>
+    <t>True Negatives</t>
+  </si>
+  <si>
+    <t>False Positves</t>
+  </si>
+  <si>
+    <t>False Negatives</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-1</t>
   </si>
 </sst>
 </file>
@@ -535,9 +548,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -594,6 +608,545 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InformationGain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>k = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8000samples.data_results'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.65027593843818199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.704673538248067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77874417887707803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843949177797233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="6632960"/>
+        <c:axId val="6637440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="6632960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="6637440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6637440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="6632960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>k = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8000samples.data_results'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6247338117.3421497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6209971723.8803596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3957192913.2320399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001720902.8318501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="36022144"/>
+        <c:axId val="36539776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="36022144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36539776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36539776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36022144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>k = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8000samples.data_results'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2672482535304901E+19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8716537091090002E+18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04176861448623E+18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0732662454532102E+17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43271680"/>
+        <c:axId val="43273216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43271680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43273216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43273216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43271680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,7 +1404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,9 +1423,15 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,8 +1450,29 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -911,13 +1491,34 @@
       <c r="F2">
         <v>0.34972406156181701</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1047</v>
+      </c>
+      <c r="H2">
+        <v>6410</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>529</v>
+      </c>
+      <c r="K2">
+        <f>(G2)/(G2+I2)</f>
+        <v>0.98680490103675778</v>
+      </c>
+      <c r="L2">
+        <f>(G2)/(G2+J2)</f>
+        <v>0.66434010152284262</v>
+      </c>
+      <c r="M2">
+        <f>(2*K2*L2)/(K2+L2)</f>
+        <v>0.79408418657565416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>6209971723.8803596</v>
@@ -934,10 +1535,34 @@
       <c r="F3">
         <v>0.295326461751932</v>
       </c>
+      <c r="G3" s="2">
+        <v>1037</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6412</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>539</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="0">(G3)/(G3+I3)</f>
+        <v>0.98856053384175402</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="1">(G3)/(G3+J3)</f>
+        <v>0.65799492385786806</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="2">(2*K3*L3)/(K3+L3)</f>
+        <v>0.79009523809523807</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>3957192913.2320399</v>
@@ -954,13 +1579,34 @@
       <c r="F4">
         <v>0.221255821122921</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="G4">
+        <v>1406</v>
+      </c>
+      <c r="H4">
+        <v>6299</v>
+      </c>
+      <c r="I4">
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <v>170</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.91835401698236452</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.89213197969543145</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.90505310588992594</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2001720902.8318501</v>
@@ -976,9 +1622,34 @@
       </c>
       <c r="F5">
         <v>0.156050822202766</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1362</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6334</v>
+      </c>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
+      <c r="J5" s="2">
+        <v>214</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.93801652892561982</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.8642131979695431</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0.89960369881109647</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PAM/8000samples.data_results.xlsx
+++ b/PAM/8000samples.data_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spancer\Documents\GitHub\DataMining_Project\PAM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="24240" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="8000samples.data_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -702,22 +707,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="6632960"/>
-        <c:axId val="6637440"/>
+        <c:axId val="257645392"/>
+        <c:axId val="257646512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6632960"/>
+        <c:axId val="257645392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6637440"/>
+        <c:crossAx val="257646512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6637440"/>
+        <c:axId val="257646512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6632960"/>
+        <c:crossAx val="257645392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -850,22 +855,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36022144"/>
-        <c:axId val="36539776"/>
+        <c:axId val="257747552"/>
+        <c:axId val="257747936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36022144"/>
+        <c:axId val="257747552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36539776"/>
+        <c:crossAx val="257747936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -873,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36539776"/>
+        <c:axId val="257747936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36022144"/>
+        <c:crossAx val="257747552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,22 +1003,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43271680"/>
-        <c:axId val="43273216"/>
+        <c:axId val="258368480"/>
+        <c:axId val="258377056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43271680"/>
+        <c:axId val="258368480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43273216"/>
+        <c:crossAx val="258377056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43273216"/>
+        <c:axId val="258377056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43271680"/>
+        <c:crossAx val="258368480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,6 +1057,2526 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>k = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8000samples.data_results'!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98680490103675778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98856053384175402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91835401698236452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93801652892561982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="258471288"/>
+        <c:axId val="258475768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="258471288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258475768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258475768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258471288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>k = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8000samples.data_results'!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66434010152284262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65799492385786806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89213197969543145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8642131979695431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="258399984"/>
+        <c:axId val="258141096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="258399984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258141096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258141096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258399984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8000samples.data_results'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>k = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k = 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>k = 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8000samples.data_results'!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79408418657565416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79009523809523807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90505310588992594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89960369881109647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="258141880"/>
+        <c:axId val="258142272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="258141880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258142272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258142272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258141880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,6 +3666,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1404,7 +4019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1414,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
